--- a/RestAPIs.xlsx
+++ b/RestAPIs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>view blog</t>
   </si>
@@ -69,15 +69,6 @@
     <t>delete comment</t>
   </si>
   <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Return Codes</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -93,21 +84,12 @@
     <t>JSON</t>
   </si>
   <si>
-    <t>Consumes</t>
-  </si>
-  <si>
-    <t>Produces</t>
-  </si>
-  <si>
     <t>/public/blog/{blogId}/delete</t>
   </si>
   <si>
     <t>/public/blog</t>
   </si>
   <si>
-    <t>Header</t>
-  </si>
-  <si>
     <t>/public/comment/{commentId}</t>
   </si>
   <si>
@@ -117,17 +99,81 @@
     <t>/public/comment</t>
   </si>
   <si>
-    <t>/public/user/</t>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Content-Type</t>
+  </si>
+  <si>
+    <t>Return Status</t>
+  </si>
+  <si>
+    <t>Return Header</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>201, 500, 400, 409</t>
+  </si>
+  <si>
+    <t>200, 404, 500</t>
+  </si>
+  <si>
+    <t>200, 500, ??</t>
+  </si>
+  <si>
+    <t>202, 404, 500, 400</t>
+  </si>
+  <si>
+    <t>/public/blog?blogId={blogId}</t>
+  </si>
+  <si>
+    <t>200, 204, 500</t>
+  </si>
+  <si>
+    <t>/public/user</t>
+  </si>
+  <si>
+    <t>/public/user/{userId}</t>
+  </si>
+  <si>
+    <t>/public/user/{userId}/login</t>
+  </si>
+  <si>
+    <t>/public/user/{userId}/logout</t>
+  </si>
+  <si>
+    <t>/public/user?userId={userId}</t>
+  </si>
+  <si>
+    <t>/public/user/{userId}/signout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,15 +199,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,7 +535,7 @@
   <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,6 +543,7 @@
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="17.88671875" customWidth="1"/>
@@ -475,22 +551,22 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -503,19 +579,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
-        <v>200404500</v>
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -523,16 +599,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>200500</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -540,16 +622,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>200500</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -557,19 +642,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1">
-        <v>201404500</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -577,13 +662,19 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -596,10 +687,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -607,7 +710,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -615,6 +730,18 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -623,7 +750,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,7 +770,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -639,7 +790,19 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -652,19 +815,19 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1">
-        <v>200404500</v>
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -672,16 +835,22 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1">
-        <v>200500</v>
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -689,16 +858,19 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1">
-        <v>200500</v>
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/RestAPIs.xlsx
+++ b/RestAPIs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>view blog</t>
   </si>
@@ -78,27 +78,9 @@
     <t>PATCH</t>
   </si>
   <si>
-    <t>/public/blog/{blogId}</t>
-  </si>
-  <si>
     <t>JSON</t>
   </si>
   <si>
-    <t>/public/blog/{blogId}/delete</t>
-  </si>
-  <si>
-    <t>/public/blog</t>
-  </si>
-  <si>
-    <t>/public/comment/{commentId}</t>
-  </si>
-  <si>
-    <t>/public/comment/{commentId}/delete</t>
-  </si>
-  <si>
-    <t>/public/comment</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -135,28 +117,43 @@
     <t>202, 404, 500, 400</t>
   </si>
   <si>
-    <t>/public/blog?blogId={blogId}</t>
-  </si>
-  <si>
     <t>200, 204, 500</t>
   </si>
   <si>
-    <t>/public/user</t>
-  </si>
-  <si>
-    <t>/public/user/{userId}</t>
-  </si>
-  <si>
-    <t>/public/user/{userId}/login</t>
-  </si>
-  <si>
-    <t>/public/user/{userId}/logout</t>
-  </si>
-  <si>
-    <t>/public/user?userId={userId}</t>
-  </si>
-  <si>
-    <t>/public/user/{userId}/signout</t>
+    <t>/user/signin</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>/user/{userId}</t>
+  </si>
+  <si>
+    <t>/blog/{blogId}</t>
+  </si>
+  <si>
+    <t>/blog</t>
+  </si>
+  <si>
+    <t>/blog/{blogId}/delete</t>
+  </si>
+  <si>
+    <t>/comment/{commentId}</t>
+  </si>
+  <si>
+    <t>/comment</t>
+  </si>
+  <si>
+    <t>/comment/{commentId}/delete</t>
+  </si>
+  <si>
+    <t>/user/signout</t>
+  </si>
+  <si>
+    <t>/user/logout</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -187,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -195,14 +192,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +548,7 @@
   <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,327 +563,395 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/RestAPIs.xlsx
+++ b/RestAPIs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>view blog</t>
   </si>
@@ -39,12 +39,6 @@
     <t>User Actions</t>
   </si>
   <si>
-    <t>sign in</t>
-  </si>
-  <si>
-    <t>sign out</t>
-  </si>
-  <si>
     <t>log in</t>
   </si>
   <si>
@@ -153,7 +147,54 @@
     <t>/user/logout</t>
   </si>
   <si>
-    <t>??</t>
+    <t>sign up</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>session token</t>
+  </si>
+  <si>
+    <t>view blogs of an User</t>
+  </si>
+  <si>
+    <t>/blog?UserId={User.Id}</t>
+  </si>
+  <si>
+    <t>JSON - Header:
+User Object</t>
+  </si>
+  <si>
+    <t>JSON - Header:
+User.username</t>
+  </si>
+  <si>
+    <t>200, 500</t>
+  </si>
+  <si>
+    <t>JSON - Header:
+User name, pwd</t>
+  </si>
+  <si>
+    <t>JSON - body:
+blog</t>
+  </si>
+  <si>
+    <t>JSON - body:
+comment</t>
+  </si>
+  <si>
+    <t>view blogs wrt Category</t>
+  </si>
+  <si>
+    <t>/blog?Category={blog.Category}</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>/blog?v={text string}</t>
   </si>
 </sst>
 </file>
@@ -211,11 +252,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H22"/>
+  <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
@@ -565,23 +609,23 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -596,138 +640,138 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -757,45 +801,45 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -803,43 +847,43 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -847,111 +891,177 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/RestAPIs.xlsx
+++ b/RestAPIs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\CMAD\BlogProject\BlogProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,16 +146,10 @@
     <t>/comment/{commentId}/delete</t>
   </si>
   <si>
-    <t>/user/signout</t>
-  </si>
-  <si>
     <t>/user/logout</t>
   </si>
   <si>
     <t>sign up</t>
-  </si>
-  <si>
-    <t>delete</t>
   </si>
   <si>
     <t>session token</t>
@@ -195,6 +194,12 @@
   </si>
   <si>
     <t>/blog?v={text string}</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>/user/exit</t>
   </si>
 </sst>
 </file>
@@ -298,6 +303,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -345,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,21 +600,21 @@
   <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -628,7 +636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,9 +648,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -651,7 +659,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -662,21 +670,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -684,7 +692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -695,20 +703,20 @@
         <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -716,13 +724,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -730,7 +738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -741,7 +749,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -752,7 +760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -774,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -784,7 +792,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,7 +804,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,7 +837,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
@@ -842,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -864,7 +872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,7 +883,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
@@ -886,7 +894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -908,15 +916,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -930,15 +938,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -952,15 +960,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
@@ -974,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -984,7 +992,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1004,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -1042,7 +1050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1090,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1094,7 +1102,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RestAPIs.xlsx
+++ b/RestAPIs.xlsx
@@ -592,7 +592,7 @@
   <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
